--- a/data/trans_bre/P1438_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1438_2023-Edad-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.012890946102072</v>
+        <v>2.683632404208167</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.283423048009761</v>
+        <v>-1.338377550817603</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6758281979195967</v>
+        <v>-0.6346649651111089</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.127410196184873</v>
+        <v>2.198724135751746</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.758864722182602</v>
+        <v>4.434026119199091</v>
       </c>
     </row>
     <row r="10">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.122954362776543</v>
+        <v>1.122954362776545</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.3352435083348086</v>
+        <v>0.3352435083348091</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.939887754870492</v>
+        <v>-0.9688590626185782</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.2360223611817432</v>
+        <v>-0.2175400880244732</v>
       </c>
     </row>
     <row r="12">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.158652248316296</v>
+        <v>3.103838683177529</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.41275037076137</v>
+        <v>1.344084105318492</v>
       </c>
     </row>
     <row r="13">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.137080862963123</v>
+        <v>2.137080862963124</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4152884345340916</v>
+        <v>0.415288434534092</v>
       </c>
     </row>
     <row r="14">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1039962526874125</v>
+        <v>-0.1926023247979236</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01893421454074631</v>
+        <v>-0.04331137663672911</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.281763607456602</v>
+        <v>4.437492824882233</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.073879992972537</v>
+        <v>1.15900620731129</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.736635949731619</v>
+        <v>5.73663594973162</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1.089174769271803</v>
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.083931561732765</v>
+        <v>3.177189960966387</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.446560726429531</v>
+        <v>0.4577432810536983</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.207077861418064</v>
+        <v>8.582577557147681</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.977179557500722</v>
+        <v>2.167744767597801</v>
       </c>
     </row>
     <row r="19">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.563076123027639</v>
+        <v>0.9474890000199507</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0501938525035215</v>
+        <v>0.09381954816394081</v>
       </c>
     </row>
     <row r="21">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.943173567739339</v>
+        <v>7.115203556322479</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.081742031298796</v>
+        <v>1.130569810317624</v>
       </c>
     </row>
     <row r="22">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>11.19018826547275</v>
+        <v>11.19018826547274</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.9723760961737221</v>
+        <v>0.9723760961737219</v>
       </c>
     </row>
     <row r="23">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.65127665210829</v>
+        <v>7.083264478502675</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.4605697197288</v>
+        <v>0.4977696974965073</v>
       </c>
     </row>
     <row r="24">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.16069507093385</v>
+        <v>15.11081791479441</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.605946309497551</v>
+        <v>1.561145421281701</v>
       </c>
     </row>
     <row r="25">
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>3.891631031167283</v>
+        <v>3.891631031167284</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.8388071596284032</v>
+        <v>0.8388071596284036</v>
       </c>
     </row>
     <row r="26">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.765739246756556</v>
+        <v>2.853124286395485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5278852729055046</v>
+        <v>0.5533971891575004</v>
       </c>
     </row>
     <row r="27">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.829523612248877</v>
+        <v>4.826236154126687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.14283260073516</v>
+        <v>1.159188379955158</v>
       </c>
     </row>
     <row r="28">
